--- a/userdata-backups/22.xlsx
+++ b/userdata-backups/22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="608">
   <si>
     <t>Name</t>
   </si>
@@ -2264,6 +2264,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:H66" si="0">TEXT(ROW(C2),"0000")</f>
         <v>0002</v>
@@ -2292,6 +2295,9 @@
       </c>
       <c r="D4" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
